--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,43 +43,43 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -91,15 +91,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -109,109 +109,103 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -578,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,13 +665,13 @@
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -697,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
@@ -847,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6952054794520548</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
@@ -897,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5384615384615384</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -965,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3733333333333334</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3624161073825503</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
-        <v>0.825</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3389830508474576</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8203125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.328042328042328</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C14">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.803921568627451</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3197674418604651</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C15">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2597402597402597</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1865079365079365</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.746031746031746</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1072386058981233</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7358490566037735</v>
+        <v>0.725</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="K20">
-        <v>0.70625</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1491,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1499,13 +1493,13 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1517,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1525,13 +1519,13 @@
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1543,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1551,13 +1545,13 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6808510638297872</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L23">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1569,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1577,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6470588235294118</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1595,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1603,13 +1597,13 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6388888888888888</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1621,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1629,13 +1623,13 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6266318537859008</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1647,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1655,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1673,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1681,13 +1675,13 @@
         <v>50</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1699,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1707,13 +1701,13 @@
         <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5735294117647058</v>
+        <v>0.575</v>
       </c>
       <c r="L29">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1725,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1733,13 +1727,13 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5600000000000001</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1751,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1759,13 +1753,13 @@
         <v>53</v>
       </c>
       <c r="K31">
-        <v>0.5457627118644067</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L31">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1777,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1785,13 +1779,13 @@
         <v>54</v>
       </c>
       <c r="K32">
-        <v>0.5056179775280899</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1803,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1811,13 +1805,13 @@
         <v>55</v>
       </c>
       <c r="K33">
-        <v>0.4769230769230769</v>
+        <v>0.453125</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1829,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1837,13 +1831,13 @@
         <v>56</v>
       </c>
       <c r="K34">
-        <v>0.4476987447698745</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L34">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1855,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1863,13 +1857,13 @@
         <v>57</v>
       </c>
       <c r="K35">
-        <v>0.40625</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1881,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1889,13 +1883,13 @@
         <v>58</v>
       </c>
       <c r="K36">
-        <v>0.3972602739726027</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1907,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1915,13 +1909,13 @@
         <v>59</v>
       </c>
       <c r="K37">
-        <v>0.3717948717948718</v>
+        <v>0.3</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1941,13 +1935,13 @@
         <v>60</v>
       </c>
       <c r="K38">
-        <v>0.3285714285714286</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1959,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1967,13 +1961,13 @@
         <v>61</v>
       </c>
       <c r="K39">
-        <v>0.08133971291866028</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1985,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1993,13 +1987,13 @@
         <v>62</v>
       </c>
       <c r="K40">
-        <v>0.07692307692307693</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2011,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>384</v>
+        <v>848</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2019,13 +2013,13 @@
         <v>63</v>
       </c>
       <c r="K41">
-        <v>0.05257270693512305</v>
+        <v>0.03884572697003329</v>
       </c>
       <c r="L41">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2037,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>847</v>
+        <v>866</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2045,13 +2039,13 @@
         <v>64</v>
       </c>
       <c r="K42">
-        <v>0.03995560488346282</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2063,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>865</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2071,25 +2065,25 @@
         <v>65</v>
       </c>
       <c r="K43">
-        <v>0.03081664098613251</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>629</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2097,77 +2091,25 @@
         <v>66</v>
       </c>
       <c r="K44">
-        <v>0.0265282583621684</v>
+        <v>0.01386202450032237</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45">
-        <v>0.02474323062558357</v>
-      </c>
-      <c r="L45">
-        <v>53</v>
-      </c>
-      <c r="M45">
-        <v>54</v>
-      </c>
-      <c r="N45">
-        <v>0.98</v>
-      </c>
-      <c r="O45">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K46">
-        <v>0.01030595813204509</v>
-      </c>
-      <c r="L46">
-        <v>32</v>
-      </c>
-      <c r="M46">
-        <v>34</v>
-      </c>
-      <c r="N46">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O46">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>3073</v>
+        <v>3059</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,45 +43,39 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>panic</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -100,12 +94,15 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -115,69 +112,81 @@
     <t>thank</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
+    <t>join</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
@@ -196,19 +205,22 @@
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -572,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -641,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,31 +671,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -741,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0.9393939393939394</v>
@@ -791,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7054794520547946</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -833,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,38 +853,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C7">
+        <v>207</v>
+      </c>
+      <c r="D7">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -883,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,37 +1003,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>91</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>45</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3758389261744967</v>
+        <v>0.36</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8203125</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3376623376623377</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3294573643410852</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3220338983050847</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3121693121693122</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,501 +1303,453 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2111111111111111</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>336</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L16">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>19</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>71</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L17">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
-        <v>0.775</v>
-      </c>
-      <c r="L16">
-        <v>93</v>
-      </c>
-      <c r="M16">
-        <v>93</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="K18">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L18">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>28</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L20">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>47</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L21">
+        <v>38</v>
+      </c>
+      <c r="M21">
+        <v>38</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L22">
+        <v>77</v>
+      </c>
+      <c r="M22">
+        <v>77</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.71875</v>
+      </c>
+      <c r="L23">
+        <v>115</v>
+      </c>
+      <c r="M23">
+        <v>115</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L25">
+        <v>64</v>
+      </c>
+      <c r="M25">
+        <v>64</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.625</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.6214099216710183</v>
+      </c>
+      <c r="L27">
+        <v>238</v>
+      </c>
+      <c r="M27">
+        <v>238</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.6</v>
+      </c>
+      <c r="L28">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="C17">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>204</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L17">
-        <v>46</v>
-      </c>
-      <c r="M17">
-        <v>46</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.09115281501340483</v>
-      </c>
-      <c r="C18">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>34</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>339</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="L18">
-        <v>77</v>
-      </c>
-      <c r="M18">
-        <v>77</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.725</v>
-      </c>
-      <c r="L19">
-        <v>116</v>
-      </c>
-      <c r="M19">
-        <v>116</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L20">
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L30">
         <v>19</v>
       </c>
-      <c r="M20">
+      <c r="M30">
         <v>19</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L21">
-        <v>62</v>
-      </c>
-      <c r="M21">
-        <v>62</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="L22">
-        <v>29</v>
-      </c>
-      <c r="M22">
-        <v>29</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.6161879895561357</v>
-      </c>
-      <c r="L24">
-        <v>236</v>
-      </c>
-      <c r="M24">
-        <v>236</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="L25">
-        <v>29</v>
-      </c>
-      <c r="M25">
-        <v>29</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.58</v>
-      </c>
-      <c r="L27">
-        <v>29</v>
-      </c>
-      <c r="M27">
-        <v>29</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <v>0.5794117647058824</v>
-      </c>
-      <c r="L28">
-        <v>197</v>
-      </c>
-      <c r="M28">
-        <v>197</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K29">
-        <v>0.575</v>
-      </c>
-      <c r="L29">
-        <v>23</v>
-      </c>
-      <c r="M29">
-        <v>23</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
+      <c r="K31">
+        <v>0.5558823529411765</v>
+      </c>
+      <c r="L31">
+        <v>189</v>
+      </c>
+      <c r="M31">
+        <v>189</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K30">
-        <v>0.5559322033898305</v>
-      </c>
-      <c r="L30">
-        <v>164</v>
-      </c>
-      <c r="M30">
-        <v>164</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="L31">
-        <v>47</v>
-      </c>
-      <c r="M31">
-        <v>47</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K32">
-        <v>0.4644351464435146</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L32">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="M32">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1797,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.453125</v>
+        <v>0.525</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1823,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4520547945205479</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1849,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.3692307692307693</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1875,47 +1839,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.358974358974359</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.3</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1927,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.0985576923076923</v>
+        <v>0.453125</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1953,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>375</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.09330143540669857</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1979,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>379</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.05145413870246085</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L40">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2005,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>848</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.03884572697003329</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2031,15 +1995,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>866</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.02768166089965398</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L42">
         <v>24</v>
@@ -2057,59 +2021,215 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>843</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.02242990654205607</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="L43">
         <v>48</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2092</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.1074766355140187</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>0.96</v>
+      </c>
+      <c r="O44">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <v>0.0985576923076923</v>
+      </c>
+      <c r="L45">
+        <v>41</v>
+      </c>
+      <c r="M45">
+        <v>41</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K44">
-        <v>0.01386202450032237</v>
-      </c>
-      <c r="L44">
+      <c r="K46">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47">
+        <v>0.06040268456375839</v>
+      </c>
+      <c r="L47">
+        <v>54</v>
+      </c>
+      <c r="M47">
+        <v>54</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48">
+        <v>0.04772475027746948</v>
+      </c>
+      <c r="L48">
         <v>43</v>
       </c>
-      <c r="M44">
-        <v>48</v>
-      </c>
-      <c r="N44">
-        <v>0.9</v>
-      </c>
-      <c r="O44">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3059</v>
+      <c r="M48">
+        <v>43</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49">
+        <v>0.0304022450888681</v>
+      </c>
+      <c r="L49">
+        <v>65</v>
+      </c>
+      <c r="M49">
+        <v>70</v>
+      </c>
+      <c r="N49">
+        <v>0.93</v>
+      </c>
+      <c r="O49">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>0.01610824742268041</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+      <c r="M50">
+        <v>53</v>
+      </c>
+      <c r="N50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3054</v>
       </c>
     </row>
   </sheetData>
